--- a/Annotations/Old/TheCallOfTheWild.xlsx
+++ b/Annotations/Old/TheCallOfTheWild.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="call" sheetId="1" r:id="rId1"/>
@@ -1520,15 +1520,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" style="2" customWidth="1"/>
@@ -1590,7 +1590,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.25489907689253621</v>
+        <v>1.9247339723178047E-2</v>
       </c>
       <c r="B2" s="2">
         <v>139</v>
@@ -1614,7 +1614,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63417010775763138</v>
+        <v>0.37803469840796677</v>
       </c>
       <c r="B3" s="2">
         <v>58</v>
@@ -1635,7 +1635,7 @@
     <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46449589679757963</v>
+        <v>0.24370169028138755</v>
       </c>
       <c r="B4" s="2">
         <v>147</v>
@@ -1662,7 +1662,7 @@
     <row r="5" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51064142548628955</v>
+        <v>0.59491074010376521</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -1689,7 +1689,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61567418993098333</v>
+        <v>0.96455929120616257</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -1716,7 +1716,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51045061295011385</v>
+        <v>2.4494404657608326E-2</v>
       </c>
       <c r="B7" s="2">
         <v>186</v>
@@ -1740,7 +1740,7 @@
     <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73743517810327297</v>
+        <v>0.74431101203175409</v>
       </c>
       <c r="B8" s="2">
         <v>146</v>
@@ -1764,7 +1764,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12172020609809697</v>
+        <v>0.80948336364317963</v>
       </c>
       <c r="B9" s="2">
         <v>61</v>
@@ -1788,7 +1788,7 @@
     <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18225694966278549</v>
+        <v>8.5109493622177457E-3</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
@@ -1812,7 +1812,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90758047509038964</v>
+        <v>0.12670133651706916</v>
       </c>
       <c r="B11" s="2">
         <v>125</v>
@@ -1836,7 +1836,7 @@
     <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75564078477144903</v>
+        <v>0.50016888250295932</v>
       </c>
       <c r="B12" s="2">
         <v>179</v>
@@ -1860,7 +1860,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28217234097992616</v>
+        <v>0.19431036552880565</v>
       </c>
       <c r="B13" s="2">
         <v>36</v>
@@ -1890,7 +1890,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77101899068607715</v>
+        <v>0.72389033083389731</v>
       </c>
       <c r="B14" s="2">
         <v>113</v>
@@ -1914,7 +1914,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88507198223004435</v>
+        <v>0.79337516172934552</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -1938,7 +1938,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73961353657985573</v>
+        <v>0.10812529619192035</v>
       </c>
       <c r="B16" s="2">
         <v>124</v>
@@ -1962,7 +1962,7 @@
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46055958168925515</v>
+        <v>0.71601109426321463</v>
       </c>
       <c r="B17" s="2">
         <v>30</v>
@@ -1986,7 +1986,7 @@
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43075071178799662</v>
+        <v>0.72033001122012608</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2010,7 +2010,7 @@
     <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.556628569133379E-2</v>
+        <v>0.24226967908776575</v>
       </c>
       <c r="B19" s="2">
         <v>127</v>
@@ -2037,7 +2037,7 @@
     <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98758702132312914</v>
+        <v>0.81712487834524483</v>
       </c>
       <c r="B20" s="2">
         <v>22</v>
@@ -2061,7 +2061,7 @@
     <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91742508784170618</v>
+        <v>0.78191592647756181</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -2082,7 +2082,7 @@
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33020563394622304</v>
+        <v>0.12298593808996428</v>
       </c>
       <c r="B22" s="2">
         <v>32</v>
@@ -2109,7 +2109,7 @@
     <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40406907174468376</v>
+        <v>0.60497710521920423</v>
       </c>
       <c r="B23" s="2">
         <v>170</v>
@@ -2136,7 +2136,7 @@
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80179068552587685</v>
+        <v>0.43219398979807944</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -2157,7 +2157,7 @@
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24539257561420347</v>
+        <v>0.59877333362628604</v>
       </c>
       <c r="B25" s="2">
         <v>173</v>
@@ -2184,7 +2184,7 @@
     <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78702118254784459</v>
+        <v>8.6504502280150497E-2</v>
       </c>
       <c r="B26" s="2">
         <v>42</v>
@@ -2208,7 +2208,7 @@
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9729964706443557E-2</v>
+        <v>6.5362122308160187E-2</v>
       </c>
       <c r="B27" s="2">
         <v>87</v>
@@ -2232,7 +2232,7 @@
     <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1461749701782504E-2</v>
+        <v>0.43277333305347121</v>
       </c>
       <c r="B28" s="2">
         <v>132</v>
@@ -2259,7 +2259,7 @@
     <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44515728341939553</v>
+        <v>0.76297671374935006</v>
       </c>
       <c r="B29" s="2">
         <v>80</v>
@@ -2283,7 +2283,7 @@
     <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64611291584961483</v>
+        <v>0.90073641994033415</v>
       </c>
       <c r="B30" s="2">
         <v>171</v>
@@ -2304,7 +2304,7 @@
     <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71809948209806596</v>
+        <v>0.78528916156974793</v>
       </c>
       <c r="B31" s="2">
         <v>100</v>
@@ -2328,7 +2328,7 @@
     <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61022085101833778</v>
+        <v>3.7594685260795457E-2</v>
       </c>
       <c r="B32" s="2">
         <v>166</v>
@@ -2361,7 +2361,7 @@
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5982309154902834</v>
+        <v>0.35120369661241257</v>
       </c>
       <c r="B33" s="2">
         <v>190</v>
@@ -2385,7 +2385,7 @@
     <row r="34" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>9.5494001677576268E-2</v>
+        <v>0.17569746345768056</v>
       </c>
       <c r="B34" s="2">
         <v>95</v>
@@ -2409,7 +2409,7 @@
     <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7995100755467428</v>
+        <v>0.30593272043962572</v>
       </c>
       <c r="B35" s="2">
         <v>159</v>
@@ -2433,7 +2433,7 @@
     <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39810783652895809</v>
+        <v>0.85972076473518055</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
@@ -2454,7 +2454,7 @@
     <row r="37" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82898972551600381</v>
+        <v>0.94408068618429608</v>
       </c>
       <c r="B37" s="2">
         <v>19</v>
@@ -2487,7 +2487,7 @@
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55954268891600023</v>
+        <v>0.50116365682348707</v>
       </c>
       <c r="B38" s="2">
         <v>191</v>
@@ -2511,7 +2511,7 @@
     <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7684663622489056E-2</v>
+        <v>0.31857825863972622</v>
       </c>
       <c r="B39" s="2">
         <v>118</v>
@@ -2535,7 +2535,7 @@
     <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49373381886804202</v>
+        <v>0.11132812984904061</v>
       </c>
       <c r="B40" s="2">
         <v>82</v>
@@ -2559,7 +2559,7 @@
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91540832230088875</v>
+        <v>0.11118400090029124</v>
       </c>
       <c r="B41" s="2">
         <v>128</v>
@@ -2583,7 +2583,7 @@
     <row r="42" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49602123449130497</v>
+        <v>0.23755984958052956</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2607,7 +2607,7 @@
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24428801127672617</v>
+        <v>0.46538816296092977</v>
       </c>
       <c r="B43" s="2">
         <v>28</v>
@@ -2631,7 +2631,7 @@
     <row r="44" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35212568081474627</v>
+        <v>0.75139036064899356</v>
       </c>
       <c r="B44" s="2">
         <v>16</v>
@@ -2655,7 +2655,7 @@
     <row r="45" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46485446201382963</v>
+        <v>0.95596895800399384</v>
       </c>
       <c r="B45" s="2">
         <v>176</v>
@@ -2682,7 +2682,7 @@
     <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16233595659832201</v>
+        <v>0.15666180577250088</v>
       </c>
       <c r="B46" s="2">
         <v>46</v>
@@ -2706,7 +2706,7 @@
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96348248329592101</v>
+        <v>0.51671507753704338</v>
       </c>
       <c r="B47" s="2">
         <v>99</v>
@@ -2733,7 +2733,7 @@
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82563908435247635</v>
+        <v>0.55238292901734887</v>
       </c>
       <c r="B48" s="2">
         <v>89</v>
@@ -2757,7 +2757,7 @@
     <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72254510282204421</v>
+        <v>0.75179665734153978</v>
       </c>
       <c r="B49" s="2">
         <v>112</v>
@@ -2781,7 +2781,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84905556281362438</v>
+        <v>0.58151022322391444</v>
       </c>
       <c r="B50" s="2">
         <v>88</v>
@@ -2805,7 +2805,7 @@
     <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14357602565501126</v>
+        <v>0.52424709429419114</v>
       </c>
       <c r="B51" s="2">
         <v>96</v>
@@ -2832,7 +2832,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81104806671443475</v>
+        <v>0.73370172141269374</v>
       </c>
       <c r="B52" s="2">
         <v>154</v>
@@ -2856,7 +2856,7 @@
     <row r="53" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7638924837384472</v>
+        <v>8.3997395677125941E-2</v>
       </c>
       <c r="B53" s="2">
         <v>54</v>
@@ -2883,7 +2883,7 @@
     <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1413556885448686E-2</v>
+        <v>0.47133831022653605</v>
       </c>
       <c r="B54" s="2">
         <v>69</v>
@@ -2907,7 +2907,7 @@
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7547355686955024</v>
+        <v>0.44327141053244234</v>
       </c>
       <c r="B55" s="2">
         <v>48</v>
@@ -2931,7 +2931,7 @@
     <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31578269907366185</v>
+        <v>0.11444991761326873</v>
       </c>
       <c r="B56" s="2">
         <v>105</v>
@@ -2955,7 +2955,7 @@
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86093510373137805</v>
+        <v>9.9745400636793713E-2</v>
       </c>
       <c r="B57" s="2">
         <v>35</v>
@@ -2982,7 +2982,7 @@
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22719632968208758</v>
+        <v>2.1509008712494282E-2</v>
       </c>
       <c r="B58" s="2">
         <v>157</v>
@@ -3003,7 +3003,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5267901547909077E-2</v>
+        <v>0.911976585297124</v>
       </c>
       <c r="B59" s="2">
         <v>161</v>
@@ -3024,7 +3024,7 @@
     <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73133202292774058</v>
+        <v>0.36902961128244938</v>
       </c>
       <c r="B60" s="2">
         <v>153</v>
@@ -3045,7 +3045,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69483213467847782</v>
+        <v>0.14333778350188331</v>
       </c>
       <c r="B61" s="2">
         <v>34</v>
@@ -3066,7 +3066,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54159768209752368</v>
+        <v>0.77743676174009213</v>
       </c>
       <c r="B62" s="2">
         <v>12</v>
@@ -3090,7 +3090,7 @@
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50686055727432189</v>
+        <v>0.35119665435148784</v>
       </c>
       <c r="B63" s="2">
         <v>116</v>
@@ -3114,7 +3114,7 @@
     <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51782649643888667</v>
+        <v>0.79091936229217918</v>
       </c>
       <c r="B64" s="2">
         <v>138</v>
@@ -3141,7 +3141,7 @@
     <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36882205050029171</v>
+        <v>1.2052242490929621E-2</v>
       </c>
       <c r="B65" s="2">
         <v>172</v>
@@ -3168,7 +3168,7 @@
     <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.65070568777703253</v>
+        <v>0.88420599944104827</v>
       </c>
       <c r="B66" s="2">
         <v>184</v>
@@ -3192,7 +3192,7 @@
     <row r="67" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7125717010541589</v>
+        <v>2.730859967697663E-2</v>
       </c>
       <c r="B67" s="2">
         <v>37</v>
@@ -3219,7 +3219,7 @@
     <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0558263979194495E-2</v>
+        <v>0.8665644540981583</v>
       </c>
       <c r="B68" s="2">
         <v>31</v>
@@ -3240,7 +3240,7 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14828878808452051</v>
+        <v>0.36941642875086833</v>
       </c>
       <c r="B69" s="2">
         <v>60</v>
@@ -3261,7 +3261,7 @@
     <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79199761016535619</v>
+        <v>0.62524143528194931</v>
       </c>
       <c r="B70" s="2">
         <v>102</v>
@@ -3285,7 +3285,7 @@
     <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43909200755236932</v>
+        <v>0.54264657848559761</v>
       </c>
       <c r="B71" s="2">
         <v>108</v>
@@ -3309,7 +3309,7 @@
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16865165264481807</v>
+        <v>0.56442005059206457</v>
       </c>
       <c r="B72" s="2">
         <v>91</v>
@@ -3333,7 +3333,7 @@
     <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31028776032128969</v>
+        <v>9.733148227056565E-2</v>
       </c>
       <c r="B73" s="2">
         <v>104</v>
@@ -3354,7 +3354,7 @@
     <row r="74" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3944978486147903E-2</v>
+        <v>0.11641383193136556</v>
       </c>
       <c r="B74" s="2">
         <v>9</v>
@@ -3375,7 +3375,7 @@
     <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8482264789260867E-2</v>
+        <v>0.30874755102322982</v>
       </c>
       <c r="B75" s="2">
         <v>47</v>
@@ -3399,7 +3399,7 @@
     <row r="76" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66143922102275354</v>
+        <v>0.13857103849402319</v>
       </c>
       <c r="B76" s="2">
         <v>165</v>
@@ -3429,7 +3429,7 @@
     <row r="77" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.703410472320119</v>
+        <v>0.28688205782287812</v>
       </c>
       <c r="B77" s="2">
         <v>180</v>
@@ -3450,7 +3450,7 @@
     <row r="78" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80682100455760752</v>
+        <v>0.64439835156336522</v>
       </c>
       <c r="B78" s="2">
         <v>98</v>
@@ -3477,7 +3477,7 @@
     <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68321627822104425</v>
+        <v>6.3877968025614629E-2</v>
       </c>
       <c r="B79" s="2">
         <v>150</v>
@@ -3498,7 +3498,7 @@
     <row r="80" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37053264227045124</v>
+        <v>0.97495035161587207</v>
       </c>
       <c r="B80" s="2">
         <v>90</v>
@@ -3522,7 +3522,7 @@
     <row r="81" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20533734207490839</v>
+        <v>0.90125786129531926</v>
       </c>
       <c r="B81" s="2">
         <v>131</v>
@@ -3552,7 +3552,7 @@
     <row r="82" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46490684258152248</v>
+        <v>0.76314581840926976</v>
       </c>
       <c r="B82" s="2">
         <v>97</v>
@@ -3573,7 +3573,7 @@
     <row r="83" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17390398238931237</v>
+        <v>0.81544039735538243</v>
       </c>
       <c r="B83" s="2">
         <v>83</v>
@@ -3597,7 +3597,7 @@
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31721707759183004</v>
+        <v>0.8892857497061909</v>
       </c>
       <c r="B84" s="2">
         <v>27</v>
@@ -3624,7 +3624,7 @@
     <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34257744789206901</v>
+        <v>0.25977741083663097</v>
       </c>
       <c r="B85" s="2">
         <v>39</v>
@@ -3648,7 +3648,7 @@
     <row r="86" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68081064632202448</v>
+        <v>7.1575397971144761E-2</v>
       </c>
       <c r="B86" s="2">
         <v>40</v>
@@ -3672,7 +3672,7 @@
     <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14636410789479926</v>
+        <v>0.93664435373067545</v>
       </c>
       <c r="B87" s="2">
         <v>103</v>
@@ -3696,7 +3696,7 @@
     <row r="88" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88354285014255141</v>
+        <v>6.5346541886038834E-3</v>
       </c>
       <c r="B88" s="2">
         <v>56</v>
@@ -3723,7 +3723,7 @@
     <row r="89" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84600739359676214</v>
+        <v>0.74776629847116627</v>
       </c>
       <c r="B89" s="2">
         <v>168</v>
@@ -3747,7 +3747,7 @@
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9870046127328771</v>
+        <v>0.10287233769869575</v>
       </c>
       <c r="B90" s="2">
         <v>51</v>
@@ -3774,7 +3774,7 @@
     <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89449503323139523</v>
+        <v>0.50145117797668171</v>
       </c>
       <c r="B91" s="2">
         <v>143</v>
@@ -3798,7 +3798,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98730982692687252</v>
+        <v>0.4090398766196911</v>
       </c>
       <c r="B92" s="2">
         <v>59</v>
@@ -3822,7 +3822,7 @@
     <row r="93" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42767283985838156</v>
+        <v>0.57404938615861678</v>
       </c>
       <c r="B93" s="2">
         <v>24</v>
@@ -3846,7 +3846,7 @@
     <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58933726044263746</v>
+        <v>0.95648982916863445</v>
       </c>
       <c r="B94" s="2">
         <v>62</v>
@@ -3873,7 +3873,7 @@
     <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30631146052333025</v>
+        <v>0.11444783394583802</v>
       </c>
       <c r="B95" s="2">
         <v>182</v>
@@ -3897,7 +3897,7 @@
     <row r="96" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46468289463450829</v>
+        <v>0.37041784084259588</v>
       </c>
       <c r="B96" s="2">
         <v>144</v>
@@ -3921,7 +3921,7 @@
     <row r="97" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7421087940747748E-3</v>
+        <v>0.88003484483052641</v>
       </c>
       <c r="B97" s="2">
         <v>175</v>
@@ -3945,7 +3945,7 @@
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
-        <v>9.8176673846219309E-2</v>
+        <v>0.87864792337306741</v>
       </c>
       <c r="B98" s="2">
         <v>123</v>
@@ -3972,7 +3972,7 @@
     <row r="99" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34088218545042293</v>
+        <v>0.22043331365944974</v>
       </c>
       <c r="B99" s="2">
         <v>177</v>
@@ -3996,7 +3996,7 @@
     <row r="100" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26728555170620127</v>
+        <v>4.6324052286356499E-2</v>
       </c>
       <c r="B100" s="2">
         <v>145</v>
@@ -4023,7 +4023,7 @@
     <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67303613651138328</v>
+        <v>0.25529433999261286</v>
       </c>
       <c r="B101" s="2">
         <v>117</v>
@@ -4047,7 +4047,7 @@
     <row r="102" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64354175716325113</v>
+        <v>0.58633954958608003</v>
       </c>
       <c r="B102" s="2">
         <v>169</v>
@@ -4074,7 +4074,7 @@
     <row r="103" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62608871261941801</v>
+        <v>0.52101313480896616</v>
       </c>
       <c r="B103" s="2">
         <v>178</v>
@@ -4101,7 +4101,7 @@
     <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1283951226245198</v>
+        <v>0.73052502196347913</v>
       </c>
       <c r="B104" s="2">
         <v>75</v>
@@ -4128,7 +4128,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31209030509284497</v>
+        <v>0.27782466716905052</v>
       </c>
       <c r="B105" s="2">
         <v>135</v>
@@ -4155,7 +4155,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1231398089910638</v>
+        <v>0.33420644198206073</v>
       </c>
       <c r="B106" s="2">
         <v>141</v>
@@ -4179,7 +4179,7 @@
     <row r="107" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41993110195783878</v>
+        <v>0.15516780721033907</v>
       </c>
       <c r="B107" s="2">
         <v>137</v>
@@ -4206,7 +4206,7 @@
     <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16433464303211998</v>
+        <v>0.2539387266851465</v>
       </c>
       <c r="B108" s="2">
         <v>26</v>
@@ -4230,7 +4230,7 @@
     <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72100024249144867</v>
+        <v>0.78497979419351849</v>
       </c>
       <c r="B109" s="2">
         <v>121</v>
@@ -4251,7 +4251,7 @@
     <row r="110" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98243064799739177</v>
+        <v>0.61828105297233138</v>
       </c>
       <c r="B110" s="2">
         <v>20</v>
@@ -4281,7 +4281,7 @@
     <row r="111" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84915994460047606</v>
+        <v>0.99505712281060521</v>
       </c>
       <c r="B111" s="2">
         <v>84</v>
@@ -4305,7 +4305,7 @@
     <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1583275863076521E-2</v>
+        <v>0.29790622446707604</v>
       </c>
       <c r="B112" s="2">
         <v>50</v>
@@ -4329,7 +4329,7 @@
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28262315089626544</v>
+        <v>0.60971829675716138</v>
       </c>
       <c r="B113" s="2">
         <v>73</v>
@@ -4353,7 +4353,7 @@
     <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1104240649327948E-2</v>
+        <v>0.88159850862038525</v>
       </c>
       <c r="B114" s="2">
         <v>133</v>
@@ -4380,7 +4380,7 @@
     <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7034336451276388E-2</v>
+        <v>2.3519175795605141E-2</v>
       </c>
       <c r="B115" s="2">
         <v>110</v>
@@ -4407,7 +4407,7 @@
     <row r="116" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53216779862014163</v>
+        <v>0.46227258362057222</v>
       </c>
       <c r="B116" s="2">
         <v>107</v>
@@ -4434,7 +4434,7 @@
     <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14939889711756027</v>
+        <v>0.60511795707430183</v>
       </c>
       <c r="B117" s="2">
         <v>160</v>
@@ -4458,7 +4458,7 @@
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71612902362770803</v>
+        <v>0.2356415971188095</v>
       </c>
       <c r="B118" s="2">
         <v>38</v>
@@ -4482,7 +4482,7 @@
     <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56813239879215682</v>
+        <v>0.99523147699835357</v>
       </c>
       <c r="B119" s="2">
         <v>45</v>
@@ -4506,7 +4506,7 @@
     <row r="120" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20895602541415759</v>
+        <v>0.53763087675980803</v>
       </c>
       <c r="B120" s="2">
         <v>167</v>
@@ -4533,7 +4533,7 @@
     <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33623875063018305</v>
+        <v>0.74244787824669378</v>
       </c>
       <c r="B121" s="2">
         <v>119</v>
@@ -4557,7 +4557,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63386583185908163</v>
+        <v>0.24022867486202493</v>
       </c>
       <c r="B122" s="2">
         <v>70</v>
@@ -4581,7 +4581,7 @@
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57626077560879729</v>
+        <v>8.9271786806912057E-2</v>
       </c>
       <c r="B123" s="2">
         <v>63</v>
@@ -4605,7 +4605,7 @@
     <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0703978367082265E-2</v>
+        <v>0.28426912644130131</v>
       </c>
       <c r="B124" s="2">
         <v>162</v>
@@ -4626,7 +4626,7 @@
     <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57829497049994805</v>
+        <v>0.10707367252509437</v>
       </c>
       <c r="B125" s="2">
         <v>130</v>
@@ -4653,7 +4653,7 @@
     <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42921109835044124</v>
+        <v>0.15220637397715142</v>
       </c>
       <c r="B126" s="2">
         <v>148</v>
@@ -4680,7 +4680,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74526273906819018</v>
+        <v>0.3968356477504037</v>
       </c>
       <c r="B127" s="2">
         <v>189</v>
@@ -4704,7 +4704,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13390867993080546</v>
+        <v>0.74166173013146142</v>
       </c>
       <c r="B128" s="2">
         <v>129</v>
@@ -4728,7 +4728,7 @@
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75394797978290851</v>
+        <v>0.25027106534015098</v>
       </c>
       <c r="B129" s="2">
         <v>142</v>
@@ -4749,7 +4749,7 @@
     <row r="130" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A161" ca="1" si="4">RAND()</f>
-        <v>0.31613908048090311</v>
+        <v>0.59350216200823436</v>
       </c>
       <c r="B130" s="2">
         <v>79</v>
@@ -4773,7 +4773,7 @@
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7781191003122766</v>
+        <v>0.89310166068180308</v>
       </c>
       <c r="B131" s="2">
         <v>149</v>
@@ -4797,7 +4797,7 @@
     <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81466110275730819</v>
+        <v>2.2612037021884634E-2</v>
       </c>
       <c r="B132" s="2">
         <v>136</v>
@@ -4818,7 +4818,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33049600307147931</v>
+        <v>0.1452876028040746</v>
       </c>
       <c r="B133" s="2">
         <v>188</v>
@@ -4839,7 +4839,7 @@
     <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12014454057134327</v>
+        <v>6.4840765520214338E-2</v>
       </c>
       <c r="B134" s="2">
         <v>115</v>
@@ -4863,7 +4863,7 @@
     <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42597617306012758</v>
+        <v>0.13261937297486492</v>
       </c>
       <c r="B135" s="2">
         <v>57</v>
@@ -4887,7 +4887,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14186612933897591</v>
+        <v>0.56182874115012038</v>
       </c>
       <c r="B136" s="2">
         <v>114</v>
@@ -4911,7 +4911,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81501046938451471</v>
+        <v>0.94079913727702846</v>
       </c>
       <c r="B137" s="2">
         <v>78</v>
@@ -4935,7 +4935,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71137353564665951</v>
+        <v>0.8505262460900942</v>
       </c>
       <c r="B138" s="2">
         <v>71</v>
@@ -4959,7 +4959,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2750680413616191E-2</v>
+        <v>0.99371686845716045</v>
       </c>
       <c r="B139" s="2">
         <v>7</v>
@@ -4980,7 +4980,7 @@
     <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17065063168550376</v>
+        <v>0.47081550366207414</v>
       </c>
       <c r="B140" s="2">
         <v>174</v>
@@ -5007,7 +5007,7 @@
     <row r="141" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6200366057656217</v>
+        <v>0.65720020725722417</v>
       </c>
       <c r="B141" s="2">
         <v>43</v>
@@ -5034,7 +5034,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60194927820175059</v>
+        <v>4.1398696878232055E-2</v>
       </c>
       <c r="B142" s="2">
         <v>181</v>
@@ -5058,7 +5058,7 @@
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51317449750675526</v>
+        <v>0.35346550868433957</v>
       </c>
       <c r="B143" s="2">
         <v>86</v>
@@ -5079,7 +5079,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.681639568058095</v>
+        <v>0.45115591612143213</v>
       </c>
       <c r="B144" s="2">
         <v>53</v>
@@ -5106,7 +5106,7 @@
     <row r="145" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87281396914085141</v>
+        <v>0.15132557819558823</v>
       </c>
       <c r="B145" s="2">
         <v>76</v>
@@ -5130,7 +5130,7 @@
     <row r="146" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52428772290860559</v>
+        <v>0.93213435420575563</v>
       </c>
       <c r="B146" s="2">
         <v>13</v>
@@ -5151,7 +5151,7 @@
     <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65910075866940998</v>
+        <v>0.48888191177868379</v>
       </c>
       <c r="B147" s="2">
         <v>183</v>
@@ -5175,7 +5175,7 @@
     <row r="148" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72329338601464832</v>
+        <v>0.82509742931978847</v>
       </c>
       <c r="B148" s="2">
         <v>5</v>
@@ -5199,7 +5199,7 @@
     <row r="149" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73198800303030809</v>
+        <v>0.58720347665987582</v>
       </c>
       <c r="B149" s="2">
         <v>10</v>
@@ -5223,7 +5223,7 @@
     <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75540085004695978</v>
+        <v>0.10569668356403517</v>
       </c>
       <c r="B150" s="2">
         <v>67</v>
@@ -5247,7 +5247,7 @@
     <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94009045778813516</v>
+        <v>0.59926587097702455</v>
       </c>
       <c r="B151" s="2">
         <v>187</v>
@@ -5271,7 +5271,7 @@
     <row r="152" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53884857959743493</v>
+        <v>6.6514499809154359E-2</v>
       </c>
       <c r="B152" s="2">
         <v>109</v>
@@ -5295,7 +5295,7 @@
     <row r="153" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84781150695676966</v>
+        <v>0.65241588748285173</v>
       </c>
       <c r="B153" s="2">
         <v>81</v>
@@ -5319,7 +5319,7 @@
     <row r="154" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70468949217742283</v>
+        <v>5.6476270966545394E-2</v>
       </c>
       <c r="B154" s="2">
         <v>29</v>
@@ -5343,7 +5343,7 @@
     <row r="155" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96519359894773959</v>
+        <v>0.65992495787270422</v>
       </c>
       <c r="B155" s="2">
         <v>33</v>
@@ -5370,7 +5370,7 @@
     <row r="156" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78406395857144084</v>
+        <v>0.93949764889857024</v>
       </c>
       <c r="B156" s="2">
         <v>15</v>
@@ -5397,7 +5397,7 @@
     <row r="157" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2514829853936057</v>
+        <v>0.16457012616327837</v>
       </c>
       <c r="B157" s="2">
         <v>152</v>
@@ -5421,7 +5421,7 @@
     <row r="158" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60669913573485124</v>
+        <v>0.50357489588972471</v>
       </c>
       <c r="B158" s="2">
         <v>18</v>
@@ -5451,7 +5451,7 @@
     <row r="159" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23459065209031194</v>
+        <v>0.78278074047648916</v>
       </c>
       <c r="B159" s="2">
         <v>77</v>
@@ -5478,7 +5478,7 @@
     <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18248911856178129</v>
+        <v>0.85955519888517418</v>
       </c>
       <c r="B160" s="2">
         <v>66</v>
@@ -5502,7 +5502,7 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92881130854527061</v>
+        <v>0.34071392595568617</v>
       </c>
       <c r="B161" s="2">
         <v>156</v>
@@ -5523,7 +5523,7 @@
     <row r="162" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ref="A162:A192" ca="1" si="5">RAND()</f>
-        <v>0.69156171245541476</v>
+        <v>0.2364686806462275</v>
       </c>
       <c r="B162" s="2">
         <v>17</v>
@@ -5547,7 +5547,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65333535513795205</v>
+        <v>0.58316242044598554</v>
       </c>
       <c r="B163" s="2">
         <v>155</v>
@@ -5568,7 +5568,7 @@
     <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9565119262564441</v>
+        <v>0.76676319418295769</v>
       </c>
       <c r="B164" s="2">
         <v>21</v>
@@ -5595,7 +5595,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69268659791630638</v>
+        <v>0.33515012808243594</v>
       </c>
       <c r="B165" s="2">
         <v>122</v>
@@ -5622,7 +5622,7 @@
     <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98238878595480095</v>
+        <v>0.77139562961752817</v>
       </c>
       <c r="B166" s="2">
         <v>85</v>
@@ -5646,7 +5646,7 @@
     <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98253160592395405</v>
+        <v>0.13153078560182141</v>
       </c>
       <c r="B167" s="2">
         <v>25</v>
@@ -5670,7 +5670,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10525834219933861</v>
+        <v>0.61543226275417573</v>
       </c>
       <c r="B168" s="2">
         <v>163</v>
@@ -5697,7 +5697,7 @@
     <row r="169" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80725532874025396</v>
+        <v>2.4450730756238936E-2</v>
       </c>
       <c r="B169" s="2">
         <v>44</v>
@@ -5721,7 +5721,7 @@
     <row r="170" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6411930515244576</v>
+        <v>0.34996499033886264</v>
       </c>
       <c r="B170" s="2">
         <v>106</v>
@@ -5748,7 +5748,7 @@
     <row r="171" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98822247999667134</v>
+        <v>0.1659838902694577</v>
       </c>
       <c r="B171" s="2">
         <v>4</v>
@@ -5772,7 +5772,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63803758128182031</v>
+        <v>0.2962220804242407</v>
       </c>
       <c r="B172" s="2">
         <v>41</v>
@@ -5796,7 +5796,7 @@
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85126857851636828</v>
+        <v>0.27432316142421642</v>
       </c>
       <c r="B173" s="2">
         <v>126</v>
@@ -5823,7 +5823,7 @@
     <row r="174" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58573073210319293</v>
+        <v>0.63101076267394884</v>
       </c>
       <c r="B174" s="2">
         <v>94</v>
@@ -5847,7 +5847,7 @@
     <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84080028364140158</v>
+        <v>0.56375909180091943</v>
       </c>
       <c r="B175" s="2">
         <v>120</v>
@@ -5874,7 +5874,7 @@
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91881426441824987</v>
+        <v>0.71566474442298555</v>
       </c>
       <c r="B176" s="2">
         <v>6</v>
@@ -5895,7 +5895,7 @@
     <row r="177" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13997403433072431</v>
+        <v>0.33953628141535208</v>
       </c>
       <c r="B177" s="2">
         <v>151</v>
@@ -5919,7 +5919,7 @@
     <row r="178" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45593349812224016</v>
+        <v>0.21764418968396504</v>
       </c>
       <c r="B178" s="2">
         <v>164</v>
@@ -5949,7 +5949,7 @@
     <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53908293519437478</v>
+        <v>8.138457779725683E-2</v>
       </c>
       <c r="B179" s="2">
         <v>52</v>
@@ -5973,7 +5973,7 @@
     <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30186429340486665</v>
+        <v>0.64259279115759993</v>
       </c>
       <c r="B180" s="2">
         <v>158</v>
@@ -5997,7 +5997,7 @@
     <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8528158262400789</v>
+        <v>0.78696787855448158</v>
       </c>
       <c r="B181" s="2">
         <v>49</v>
@@ -6024,7 +6024,7 @@
     <row r="182" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32683596856085984</v>
+        <v>0.19682322230919846</v>
       </c>
       <c r="B182" s="2">
         <v>92</v>
@@ -6045,7 +6045,7 @@
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81800028678374315</v>
+        <v>0.76472954369811452</v>
       </c>
       <c r="B183" s="2">
         <v>185</v>
@@ -6066,7 +6066,7 @@
     <row r="184" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3291343554458228E-2</v>
+        <v>0.3493314139439363</v>
       </c>
       <c r="B184" s="2">
         <v>74</v>
@@ -6093,7 +6093,7 @@
     <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61484991548871981</v>
+        <v>0.91690529697829204</v>
       </c>
       <c r="B185" s="2">
         <v>64</v>
@@ -6120,7 +6120,7 @@
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61743592128611435</v>
+        <v>0.66317003674363717</v>
       </c>
       <c r="B186" s="2">
         <v>140</v>
@@ -6144,7 +6144,7 @@
     <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33973940760731913</v>
+        <v>0.7400059963669281</v>
       </c>
       <c r="B187" s="2">
         <v>111</v>
@@ -6171,7 +6171,7 @@
     <row r="188" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17601601818922663</v>
+        <v>0.33595906996049485</v>
       </c>
       <c r="B188" s="2">
         <v>55</v>
@@ -6198,7 +6198,7 @@
     <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28447866380130304</v>
+        <v>0.53241894214941887</v>
       </c>
       <c r="B189" s="2">
         <v>134</v>
@@ -6219,7 +6219,7 @@
     <row r="190" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97119703876252617</v>
+        <v>0.2564479990044195</v>
       </c>
       <c r="B190" s="2">
         <v>68</v>
@@ -6243,7 +6243,7 @@
     <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36503930327690826</v>
+        <v>1.6698191739194845E-2</v>
       </c>
       <c r="B191" s="2">
         <v>101</v>
@@ -6270,7 +6270,7 @@
     <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82441521659462591</v>
+        <v>0.89371549935197825</v>
       </c>
       <c r="B192" s="2">
         <v>93</v>
@@ -6454,7 +6454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A327" sqref="A193:XFD327"/>
     </sheetView>
   </sheetViews>
